--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1529277.913906057</v>
+        <v>-1531937.266878071</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>323.8388427438209</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13.04868263301651</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>208.1684895214358</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.781160222249666</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>96.97633795874975</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>179.6140181837485</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.264474711070295</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63950530374154</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1108,7 +1108,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>160.1554057659913</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>116.93881574185</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>200.4331707528085</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>74.75769145492382</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>64.82019709657247</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>126.9263824507432</v>
       </c>
       <c r="F13" t="n">
-        <v>70.04554881124234</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365899</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>143.2091541404069</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>163.949385892745</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.81332727248867</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>248.6571042139335</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3190,10 +3190,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1059.365742829027</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="C2" t="n">
-        <v>690.4032258886157</v>
+        <v>409.5124851747536</v>
       </c>
       <c r="D2" t="n">
-        <v>690.4032258886157</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>690.4032258886157</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>677.2227383805182</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>261.517988104807</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.104914868961</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1445.965582893149</v>
+        <v>736.6224273402293</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>168.0008189145195</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>447.232416490762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>447.232416490762</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>297.1157770784263</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>149.2026834960332</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323095</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>896.0145465323095</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X4" t="n">
-        <v>668.0249956342922</v>
+        <v>53.04593830764924</v>
       </c>
       <c r="Y4" t="n">
-        <v>447.232416490762</v>
+        <v>53.04593830764924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1059.365742829027</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="C5" t="n">
-        <v>1059.365742829027</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D5" t="n">
-        <v>1059.365742829027</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E5" t="n">
-        <v>1059.365742829027</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>648.3798380394198</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>232.6750877637087</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1973.026070603629</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="X5" t="n">
-        <v>1836.104914868961</v>
+        <v>1620.257415333515</v>
       </c>
       <c r="Y5" t="n">
-        <v>1445.965582893149</v>
+        <v>1230.118083357703</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4653,19 +4653,19 @@
         <v>854.8429682049857</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.8338829770711</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C7" t="n">
-        <v>770.8338829770711</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D7" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
@@ -4756,19 +4756,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>952.4823478073108</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>952.4823478073108</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>952.4823478073108</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X7" t="n">
-        <v>952.4823478073108</v>
+        <v>597.1475965504962</v>
       </c>
       <c r="Y7" t="n">
-        <v>952.4823478073108</v>
+        <v>376.3550174069661</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1636.624422581789</v>
+        <v>1178.820931986406</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3097.195137235408</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3097.195137235408</v>
+        <v>3012.857404901105</v>
       </c>
       <c r="V8" t="n">
-        <v>2766.132249891837</v>
+        <v>2681.794517557534</v>
       </c>
       <c r="W8" t="n">
-        <v>2413.363594621723</v>
+        <v>2329.02586228742</v>
       </c>
       <c r="X8" t="n">
-        <v>2413.363594621723</v>
+        <v>1955.56010402634</v>
       </c>
       <c r="Y8" t="n">
-        <v>2023.224262645911</v>
+        <v>1565.420772050528</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.030850478768</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1091.613680441807</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="11">
@@ -5042,10 +5042,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C13" t="n">
-        <v>853.5941094450246</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326889</v>
+        <v>363.7369613277366</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502958</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346701</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203171</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1072.713683962606</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.311647517212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1522.780413559004</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1233.363243522043</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1005.373692624026</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>784.5811134804959</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6789,16 +6789,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380732</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,10 +6889,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273902</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7081,7 +7081,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,7 +7090,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.0944824954149</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,13 +7251,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531931</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656802</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115001</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942641</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954144</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838284</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518749</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582388</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400514</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,22 +7567,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
         <v>2496.057455973196</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7731,16 +7731,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>54.9531451156648</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>265.030432851515</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,13 +8301,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>54.95314511566534</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.36925650589473</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>58.89499891965971</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>402.7664347977583</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>92.85006304096953</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>19.50758019582601</v>
       </c>
       <c r="F13" t="n">
-        <v>75.3754992116889</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>142.9753202488372</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>88.18825743108303</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.7713260796061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>37.52737017531066</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1061261.508621413</v>
+        <v>1061261.508621412</v>
       </c>
     </row>
     <row r="3">
@@ -26326,7 +26326,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457511</v>
+        <v>141250.6549457512</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26347,10 +26347,10 @@
         <v>143682.3097262496</v>
       </c>
       <c r="N2" t="n">
+        <v>143682.3097262497</v>
+      </c>
+      <c r="O2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
         <v>143682.3097262497</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46585.9561100705</v>
+        <v>46585.95611007047</v>
       </c>
       <c r="C4" t="n">
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810792</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.20035675659</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9337.200356756601</v>
+      </c>
+      <c r="H4" t="n">
         <v>9337.200356756592</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756612</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9337.200356756603</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756575</v>
       </c>
       <c r="K4" t="n">
-        <v>17328.05961985009</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985013</v>
+        <v>17328.05961985006</v>
       </c>
       <c r="M4" t="n">
-        <v>17328.05961985013</v>
+        <v>17328.05961985008</v>
       </c>
       <c r="N4" t="n">
+        <v>17328.05961985006</v>
+      </c>
+      <c r="O4" t="n">
         <v>17328.05961985005</v>
       </c>
-      <c r="O4" t="n">
-        <v>17328.05961985006</v>
-      </c>
       <c r="P4" t="n">
-        <v>17328.05961985006</v>
+        <v>17328.05961985005</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1138230.668280308</v>
+        <v>-1138625.489221461</v>
       </c>
       <c r="C6" t="n">
         <v>-85981.73640569759</v>
       </c>
       <c r="D6" t="n">
-        <v>-245403.0064035896</v>
+        <v>-245403.0064035895</v>
       </c>
       <c r="E6" t="n">
-        <v>-294621.5370422677</v>
+        <v>-294656.2749677036</v>
       </c>
       <c r="F6" t="n">
-        <v>30790.92476508739</v>
+        <v>30756.18683965167</v>
       </c>
       <c r="G6" t="n">
-        <v>30790.92476508739</v>
+        <v>30756.18683965178</v>
       </c>
       <c r="H6" t="n">
-        <v>30790.92476508739</v>
+        <v>30756.18683965167</v>
       </c>
       <c r="I6" t="n">
-        <v>30790.92476508736</v>
+        <v>30756.18683965169</v>
       </c>
       <c r="J6" t="n">
-        <v>-136814.2530448952</v>
+        <v>-136848.9909703309</v>
       </c>
       <c r="K6" t="n">
-        <v>3762.416258852332</v>
+        <v>3762.416258852405</v>
       </c>
       <c r="L6" t="n">
-        <v>-25103.83575570666</v>
+        <v>-25103.83575570655</v>
       </c>
       <c r="M6" t="n">
-        <v>-61864.89368302767</v>
+        <v>-61864.89368302772</v>
       </c>
       <c r="N6" t="n">
         <v>23190.13425248419</v>
@@ -26561,7 +26561,7 @@
         <v>23190.13425248419</v>
       </c>
       <c r="P6" t="n">
-        <v>3762.416258852405</v>
+        <v>3762.416258852434</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203974</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203974</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,10 +27385,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>393.827363108695</v>
+        <v>4.109610943953157</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.44471006418149</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>121.4045343786568</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>325.4877837590646</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>108.1924748781958</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>126.0717483552093</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>86.97915439777017</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>50.56200120609347</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>70.66335656800743</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>187.3174462272555</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,16 +31853,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,7 +32321,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,13 +32555,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,25 +33734,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,16 +33971,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>577.7447198439388</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,7 +34463,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>117.9333660065822</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34784,19 +34784,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>600.455114847638</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,13 +35021,13 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>421.8844773977058</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>365.7939385020177</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,7 +35969,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37470,10 +37470,10 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980851</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,16 +37619,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37701,16 +37701,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,7 +38111,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
         <v>288.6172359016746</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
